--- a/scraper/top_remaining_spreadsheets_states/top_remaining_AZ.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_AZ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>STATE</t>
   </si>
@@ -41,30 +41,39 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Blackjack</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Tic Tac 2's</t>
+  </si>
+  <si>
+    <t>Cash Cow</t>
+  </si>
+  <si>
+    <t>Quick 7s</t>
+  </si>
+  <si>
+    <t>I Love Ben</t>
+  </si>
+  <si>
     <t>Cashtag</t>
   </si>
   <si>
-    <t>2019-02-27</t>
-  </si>
-  <si>
-    <t>Blackjack</t>
-  </si>
-  <si>
-    <t>Tic Tac 2's</t>
-  </si>
-  <si>
-    <t>Cash Cow</t>
+    <t>2019-04-03</t>
   </si>
   <si>
     <t>Find A 9</t>
   </si>
   <si>
+    <t>$1 Decade of Dollars</t>
+  </si>
+  <si>
     <t>Reindeer Riches</t>
   </si>
   <si>
-    <t>$1 Decade of Dollars</t>
-  </si>
-  <si>
     <t>I Love to Win!</t>
   </si>
   <si>
@@ -80,28 +89,40 @@
     <t>Wild Jokers</t>
   </si>
   <si>
+    <t>Red Hot 7's</t>
+  </si>
+  <si>
+    <t>Easy $50</t>
+  </si>
+  <si>
+    <t>$2 Decade of Dollars</t>
+  </si>
+  <si>
+    <t>GOLD FISH®</t>
+  </si>
+  <si>
+    <t>$2 Crossword</t>
+  </si>
+  <si>
+    <t>Lucha Libre Loot</t>
+  </si>
+  <si>
     <t>Bingo</t>
   </si>
   <si>
+    <t>Lucky Deal</t>
+  </si>
+  <si>
+    <t>Red Hot 7s</t>
+  </si>
+  <si>
     <t>The Cash Wheel</t>
   </si>
   <si>
-    <t>Lucha Libre Loot</t>
-  </si>
-  <si>
-    <t>$2 Decade of Dollars</t>
-  </si>
-  <si>
-    <t>$2 Crossword</t>
-  </si>
-  <si>
-    <t>Red Hot 7's</t>
-  </si>
-  <si>
-    <t>Lucky Deal</t>
-  </si>
-  <si>
-    <t>Red Hot 7s</t>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>Red Ball Tripler</t>
   </si>
   <si>
     <t>$3.00 Games</t>
@@ -110,6 +131,9 @@
     <t>Crossword Corner Cash</t>
   </si>
   <si>
+    <t>Winning Lineup</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ms. Pac-Man™ </t>
   </si>
   <si>
@@ -122,114 +146,126 @@
     <t>Fruit Explosion</t>
   </si>
   <si>
+    <t>Twisted</t>
+  </si>
+  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
     <t>$5 Decade of Dollars</t>
   </si>
   <si>
+    <t>Magic Number Bingo</t>
+  </si>
+  <si>
+    <t>Double Sided Dollars</t>
+  </si>
+  <si>
+    <t>$50,000 Makeover Money</t>
+  </si>
+  <si>
+    <t>Green Line Slingo® Trio</t>
+  </si>
+  <si>
     <t>Holiday 7</t>
   </si>
   <si>
     <t>Bingo Plus</t>
   </si>
   <si>
+    <t>Late Night Crossword</t>
+  </si>
+  <si>
     <t>Alice Cooper</t>
   </si>
   <si>
-    <t>Magic Number Bingo</t>
+    <t>Arizona 7s</t>
   </si>
   <si>
     <t>Casino Gold</t>
   </si>
   <si>
-    <t>Late Night Crossword</t>
-  </si>
-  <si>
-    <t>Green Line Slingo® Trio</t>
-  </si>
-  <si>
-    <t>Arizona 7s</t>
-  </si>
-  <si>
     <t>The Voice©</t>
   </si>
   <si>
+    <t>LOTERIA™ GRANDE</t>
+  </si>
+  <si>
+    <t>24 Karat Crossword</t>
+  </si>
+  <si>
+    <t>I Love Crossword</t>
+  </si>
+  <si>
+    <t>Lady Luck</t>
+  </si>
+  <si>
     <t>Extreme Crazy 8's</t>
   </si>
   <si>
-    <t>LOTERIA™ GRANDE</t>
-  </si>
-  <si>
-    <t>24 Karat Crossword</t>
-  </si>
-  <si>
-    <t>Lady Luck</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>Big Money</t>
+  </si>
+  <si>
+    <t>Fire &amp; Ice Crossword</t>
+  </si>
+  <si>
+    <t>$100,000 Crossword</t>
+  </si>
+  <si>
+    <t>Perfect 10</t>
+  </si>
+  <si>
+    <t>Cleopatra™ Slots</t>
+  </si>
+  <si>
+    <t>Towering 10's</t>
+  </si>
+  <si>
+    <t>Multiplier Mania</t>
+  </si>
+  <si>
+    <t>Money Tree</t>
+  </si>
+  <si>
+    <t>WILLY WONKA GOLDEN TICKET™</t>
+  </si>
+  <si>
+    <t>Triple Red 7's</t>
+  </si>
+  <si>
+    <t>$10 Decade of Dollars</t>
+  </si>
+  <si>
+    <t>Precious Metals Super Ticket™</t>
+  </si>
+  <si>
+    <t>$50 or $100</t>
+  </si>
+  <si>
     <t>Jumbo Bucks</t>
   </si>
   <si>
-    <t>Perfect 10</t>
-  </si>
-  <si>
-    <t>Big Money</t>
-  </si>
-  <si>
-    <t>Fire &amp; Ice Crossword</t>
-  </si>
-  <si>
-    <t>Money Tree</t>
-  </si>
-  <si>
-    <t>WILLY WONKA GOLDEN TICKET™</t>
-  </si>
-  <si>
-    <t>$100,000 Crossword</t>
-  </si>
-  <si>
-    <t>Towering 10's</t>
-  </si>
-  <si>
-    <t>Cleopatra™ Slots</t>
-  </si>
-  <si>
-    <t>Triple Red 7's</t>
-  </si>
-  <si>
-    <t>Multiplier Mania</t>
-  </si>
-  <si>
-    <t>$10 Decade of Dollars</t>
-  </si>
-  <si>
-    <t>Precious Metals Super Ticket™</t>
-  </si>
-  <si>
-    <t>$50 or $100</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
+    <t>Arizona Gold</t>
+  </si>
+  <si>
     <t>$250,000 Crossword</t>
   </si>
   <si>
-    <t>Arizona Gold</t>
-  </si>
-  <si>
     <t>$200 Million Cash Explosion®</t>
   </si>
   <si>
+    <t>$215 Million Cash Explosion®</t>
+  </si>
+  <si>
     <t>$500,000 Holiday Countdown</t>
   </si>
   <si>
-    <t>$215 Million Cash Explosion®</t>
-  </si>
-  <si>
     <t>White Ice 7's</t>
   </si>
   <si>
@@ -240,6 +276,9 @@
   </si>
   <si>
     <t>$30.00 Games</t>
+  </si>
+  <si>
+    <t>Arizona Millionaire's Club</t>
   </si>
   <si>
     <t>Royal Millions</t>
@@ -581,7 +620,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1159</v>
+        <v>1199</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -640,10 +679,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1199</v>
+        <v>1173</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -660,10 +699,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -680,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1166</v>
+        <v>1206</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -700,10 +739,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1160</v>
+        <v>1196</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2340</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -720,13 +759,13 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1178</v>
+        <v>1159</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -737,16 +776,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>1142</v>
+        <v>1160</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -757,10 +796,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -774,19 +813,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -794,19 +833,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
-        <v>1111</v>
+        <v>1138</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -814,19 +853,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>1149</v>
+        <v>1179</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -834,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>1170</v>
+        <v>1111</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -854,13 +893,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -874,16 +913,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -894,16 +933,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>1143</v>
+        <v>1205</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -914,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>1171</v>
+        <v>1143</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -934,16 +973,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>1172</v>
+        <v>1202</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -954,16 +993,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>1140</v>
+        <v>1171</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -974,19 +1013,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -994,16 +1033,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>1119</v>
+        <v>1170</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1014,16 +1053,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>1200</v>
+        <v>1168</v>
       </c>
       <c r="E22">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1034,19 +1073,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>1124</v>
+        <v>1140</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1054,19 +1093,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24">
-        <v>1180</v>
+        <v>1119</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1074,19 +1113,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1094,19 +1133,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>1188</v>
+        <v>1110</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1114,16 +1153,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>1145</v>
+        <v>1200</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1134,16 +1173,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28">
-        <v>1181</v>
+        <v>1203</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1154,19 +1193,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>1156</v>
+        <v>1124</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1174,19 +1213,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1194,16 +1233,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>1189</v>
+        <v>1144</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1214,16 +1253,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>1164</v>
+        <v>1188</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1234,19 +1273,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>1195</v>
+        <v>1163</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1254,16 +1293,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>1185</v>
+        <v>1145</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1274,13 +1313,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>1209</v>
+        <v>1189</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -1294,16 +1333,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1314,16 +1353,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>1155</v>
+        <v>1201</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1334,16 +1373,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>1161</v>
+        <v>1185</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1354,19 +1393,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>1158</v>
+        <v>1181</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1374,19 +1413,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1394,16 +1433,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41">
-        <v>1175</v>
+        <v>1195</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1414,19 +1453,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42">
-        <v>1133</v>
+        <v>1186</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1434,16 +1473,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>1162</v>
+        <v>1209</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1454,16 +1493,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1474,19 +1513,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45">
-        <v>1182</v>
+        <v>1157</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1494,19 +1533,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1514,19 +1553,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>1187</v>
+        <v>1158</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1534,19 +1573,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>1198</v>
+        <v>1132</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1554,19 +1593,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1574,19 +1613,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50">
-        <v>1192</v>
+        <v>1155</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1594,16 +1633,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D51">
-        <v>1207</v>
+        <v>1162</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1614,16 +1653,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D52">
-        <v>1146</v>
+        <v>1165</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1634,16 +1673,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D53">
-        <v>1108</v>
+        <v>1187</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1654,19 +1693,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="E54">
-        <v>1600</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1674,16 +1713,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>1154</v>
+        <v>1169</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1694,16 +1733,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>1174</v>
+        <v>1198</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1714,16 +1753,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57">
-        <v>1080</v>
+        <v>1207</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1734,19 +1773,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D58">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1754,19 +1793,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D59">
-        <v>1190</v>
+        <v>1152</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1774,16 +1813,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D60">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1794,19 +1833,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D61">
-        <v>1183</v>
+        <v>1146</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1814,19 +1853,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1834,18 +1873,258 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
+        <v>1153</v>
+      </c>
+      <c r="E63">
+        <v>1598</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64">
+        <v>1175</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65">
+        <v>1148</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66">
+        <v>1174</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67">
+        <v>1154</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>1080</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69">
+        <v>1191</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70">
+        <v>1190</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71">
+        <v>1184</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72">
+        <v>1183</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73">
+        <v>1204</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74">
+        <v>1217</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75">
         <v>1134</v>
       </c>
-      <c r="E63">
+      <c r="E75">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F75" t="s">
         <v>9</v>
       </c>
     </row>
